--- a/references/Finance Dic.xlsx
+++ b/references/Finance Dic.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samad\Documents\GitHub\TD-Rotman-FinHub-TDMDAL-Hackathon\sentiment_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguolun/Desktop/TD data competition/TD-Rotman-FinHub-TDMDAL-Hackathon/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDA3F70-DFE9-482D-9BF7-E98BC015DC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C4609-9022-1C4C-8D29-F12A4B7C4881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1038" yWindow="618" windowWidth="12192" windowHeight="9582" xr2:uid="{3ED77A03-FA71-46F5-8BBB-5EE8BE48D962}"/>
+    <workbookView xWindow="7220" yWindow="1100" windowWidth="19540" windowHeight="14300" xr2:uid="{3ED77A03-FA71-46F5-8BBB-5EE8BE48D962}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Positive" sheetId="1" r:id="rId1"/>
+    <sheet name="Negative" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">Saving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividend </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">short-term </t>
   </si>
@@ -48,9 +43,6 @@
     <t>demand</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>loss</t>
   </si>
   <si>
@@ -171,12 +163,6 @@
     <t xml:space="preserve">salesforce </t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative </t>
-  </si>
-  <si>
     <t>just</t>
   </si>
   <si>
@@ -193,32 +179,44 @@
   </si>
   <si>
     <t>deficit</t>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,10 +233,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -254,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -550,234 +548,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974325DA-78C5-4E66-9E03-287473733DB0}">
-  <dimension ref="C2:D28"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="11.9453125" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1620EE0-818B-BB47-B9B5-9CD68CD27A23}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>